--- a/Results_ZC/Average_results_Demand_15.xlsx
+++ b/Results_ZC/Average_results_Demand_15.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="FTNC_Average_Demand15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FTNC_Average_Demand151" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,4 +486,72 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC_Average_Demand_15</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2425.00693602971</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12847.37736604325</v>
+      </c>
+      <c r="D2" t="n">
+        <v>859.3641716139318</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.72209238597305</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16144.47056636828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/Results_ZC/Average_results_Demand_15.xlsx
+++ b/Results_ZC/Average_results_Demand_15.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="FTNC_Average_Demand15" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="FTNC_Average_Demand151" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FTNC_Average_Demand152" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -554,4 +555,72 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>In-vehicle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>At-stop</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardiness</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTNC_Average_Demand_15</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2444.36605568987</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12957.52356681243</v>
+      </c>
+      <c r="D2" t="n">
+        <v>704.8661188217991</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.85729127237325</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16125.61303259648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>